--- a/Calc_SIM/Phaser_Power_Budget.xlsx
+++ b/Calc_SIM/Phaser_Power_Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Phaser\Calc_SIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94776F-2D6E-42D3-8F37-9DB821778DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F284E551-E107-40F9-9470-20F3D2B97EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Rail</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Power Supply</t>
   </si>
   <si>
-    <t>LTM4622A</t>
-  </si>
-  <si>
     <t>P12V0</t>
   </si>
   <si>
@@ -205,6 +202,27 @@
   </si>
   <si>
     <t>TRN 3-1222</t>
+  </si>
+  <si>
+    <t>LEDs</t>
+  </si>
+  <si>
+    <t>MIC45116-1YMP</t>
+  </si>
+  <si>
+    <t>LT3045</t>
+  </si>
+  <si>
+    <t>TPS72012DRVR</t>
+  </si>
+  <si>
+    <t>ADP151AUJZ-2.5-R7</t>
+  </si>
+  <si>
+    <t>TPS563201DDC</t>
+  </si>
+  <si>
+    <t>losses</t>
   </si>
 </sst>
 </file>
@@ -228,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +295,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -286,11 +316,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -300,6 +356,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -614,587 +674,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366D8080-B06B-45F2-A912-FF305F83A70D}">
-  <dimension ref="A1:U44"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="O1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="Q4">
+      <c r="P4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="O5">
+      <c r="N5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>12</v>
       </c>
-      <c r="M6">
+      <c r="L6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="F9">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
+      <c r="B11">
+        <v>1500</v>
+      </c>
       <c r="C11">
-        <v>1500</v>
-      </c>
-      <c r="D11">
         <v>200</v>
       </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
       <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
         <v>100</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>50</v>
       </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="F13">
+      <c r="E13">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="J14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="P14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="F15">
+      <c r="E15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="I17">
+      <c r="H17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="O19">
+      <c r="N19">
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="Q19">
+      <c r="P19">
         <f>2*4</f>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="O20">
+      <c r="N20">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="Q20">
+      <c r="P20">
         <f>2*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="O21">
+      <c r="N21">
         <v>2</v>
       </c>
-      <c r="Q21">
+      <c r="P21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="M23">
+      <c r="L23">
         <f>2*3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="H25">
+      <c r="G25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="H26">
+      <c r="G26">
         <v>10</v>
       </c>
-      <c r="J26">
+      <c r="I26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="H27">
+      <c r="G27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="K29">
+      <c r="J29">
         <f>2*250</f>
         <v>500</v>
       </c>
-      <c r="M29">
+      <c r="L29">
         <f>2*148</f>
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="E30">
+      <c r="D30">
         <f>820+60+120</f>
         <v>1000</v>
       </c>
-      <c r="K30">
+      <c r="J30">
         <f>165</f>
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L33" s="8">
+        <v>54</v>
+      </c>
+      <c r="K33" s="8">
         <v>2</v>
       </c>
-      <c r="N33" s="8">
+      <c r="M33" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="O34" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="I35">
+        <v>52</v>
+      </c>
+      <c r="H35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38">
+        <f>4*0.5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="P36">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="C37">
-        <f>SUM(C4:C36)</f>
+      <c r="B42">
+        <f>SUM(B4:B41)</f>
         <v>1500</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" ref="D37:G37" si="0">SUM(D4:D36)</f>
+      <c r="C42" s="3">
+        <f t="shared" ref="C42:F42" si="0">SUM(C4:C41)</f>
         <v>200</v>
       </c>
-      <c r="E37" s="3">
+      <c r="D42" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="F37">
+      <c r="E42">
         <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="G37" s="4">
+        <v>320.05</v>
+      </c>
+      <c r="F42" s="8">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="H37">
-        <f>SUM(H4:H36)</f>
+      <c r="G42" s="4">
+        <f t="shared" ref="G42:P42" si="1">SUM(G4:G41)</f>
         <v>131</v>
       </c>
-      <c r="I37">
-        <f>SUM(I4:I36)</f>
-        <v>4</v>
-      </c>
-      <c r="J37" s="8">
-        <f>SUM(J4:J36)</f>
-        <v>103</v>
-      </c>
-      <c r="K37" s="5">
-        <f>SUM(K4:K36)</f>
-        <v>665</v>
-      </c>
-      <c r="L37">
-        <f>SUM(L4:L36)</f>
-        <v>2</v>
-      </c>
-      <c r="M37" s="6">
-        <f>SUM(M4:M36)</f>
-        <v>327</v>
-      </c>
-      <c r="N37">
-        <f>SUM(N4:N36)</f>
-        <v>6</v>
-      </c>
-      <c r="O37">
-        <f>SUM(O4:O36)</f>
-        <v>23</v>
-      </c>
-      <c r="P37">
-        <f>SUM(P4:P36)</f>
+      <c r="H42">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I42" s="8">
+        <f t="shared" si="1"/>
+        <v>113.25</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="1"/>
+        <v>666</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L42" s="6">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="Q37">
-        <f>SUM(Q4:Q36)</f>
+      <c r="P42">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3">
+        <f>C42+D42</f>
+        <v>1200</v>
+      </c>
+      <c r="I43" s="4">
+        <f>G42</f>
+        <v>131</v>
+      </c>
+      <c r="K43" s="5">
+        <f>J42</f>
+        <v>666</v>
+      </c>
+      <c r="M43" s="6">
+        <f>L42</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f>B42</f>
+        <v>1500</v>
+      </c>
+      <c r="E44">
+        <f>E42+E43</f>
+        <v>1520.05</v>
+      </c>
+      <c r="H44">
+        <f>H42+H43</f>
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <f>K42+K43</f>
+        <v>669</v>
+      </c>
+      <c r="M44">
+        <f>M42+M43</f>
+        <v>341</v>
+      </c>
+      <c r="N44">
+        <f>N42+N43</f>
+        <v>24</v>
+      </c>
+      <c r="O44">
+        <f>O42+O43</f>
+        <v>47</v>
+      </c>
+      <c r="P44">
+        <f>P42+P43</f>
+        <v>17</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f>B44*1</f>
+        <v>1500</v>
+      </c>
+      <c r="E45">
+        <f>E44*1.5</f>
+        <v>2280.0749999999998</v>
+      </c>
+      <c r="H45">
+        <f>H42*3.3</f>
+        <v>16.5</v>
+      </c>
+      <c r="K45">
+        <f>K44*3.6</f>
+        <v>2408.4</v>
+      </c>
+      <c r="M45">
+        <f>M44*5.5</f>
+        <v>1875.5</v>
+      </c>
+      <c r="N45">
+        <f>N42*11.5</f>
+        <v>276</v>
+      </c>
+      <c r="O45">
+        <f>O42*12</f>
+        <v>564</v>
+      </c>
+      <c r="P45">
+        <f>P42*11.5</f>
+        <v>195.5</v>
+      </c>
+      <c r="Q45" s="10">
+        <f>SUM(B45:P45)</f>
+        <v>9115.9750000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f>0.92*0.89</f>
+        <v>0.81880000000000008</v>
+      </c>
+      <c r="E46">
+        <f>0.92*0.9</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <f>0.92*0.96</f>
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="M46">
+        <v>0.92</v>
+      </c>
+      <c r="N46">
+        <v>0.84</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>0.84</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f>(1-B46)*B45</f>
+        <v>271.7999999999999</v>
+      </c>
+      <c r="E47">
+        <f>(1-E46)*E45</f>
+        <v>392.1728999999998</v>
+      </c>
+      <c r="H47">
+        <f>(1-H46)*H45</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>(1-K46)*K45</f>
+        <v>281.30112000000003</v>
+      </c>
+      <c r="M47">
+        <f>(1-M46)*M45</f>
+        <v>150.03999999999994</v>
+      </c>
+      <c r="N47">
+        <f>(1-N46)*N45</f>
+        <v>44.160000000000011</v>
+      </c>
+      <c r="O47">
+        <f>(1-O46)*O45</f>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f>(1-P46)*P45</f>
+        <v>31.280000000000005</v>
+      </c>
+      <c r="Q47" s="12">
+        <f>SUM(B47:P47)</f>
+        <v>1170.7540199999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="3">
-        <f>D37+E37</f>
-        <v>1200</v>
-      </c>
-      <c r="L38" s="5">
-        <f>K37</f>
-        <v>665</v>
-      </c>
-      <c r="N38" s="6" t="e">
-        <f>#REF!+M37</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39">
-        <f>C37</f>
-        <v>1500</v>
-      </c>
-      <c r="F39">
-        <f>F37+F38</f>
-        <v>1520</v>
-      </c>
-      <c r="I39">
-        <f>I37+I38</f>
-        <v>4</v>
-      </c>
-      <c r="L39">
-        <f>L37+L38</f>
-        <v>667</v>
-      </c>
-      <c r="N39" t="e">
-        <f>N37+N38</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O39">
-        <f>O37+O38</f>
-        <v>23</v>
-      </c>
-      <c r="P39">
-        <f>P37+P38</f>
-        <v>47</v>
-      </c>
-      <c r="Q39">
-        <f>Q37+Q38</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40">
-        <f>C39*1</f>
-        <v>1500</v>
-      </c>
-      <c r="F40">
-        <f>F39*1.5</f>
-        <v>2280</v>
-      </c>
-      <c r="H40">
-        <f>H37*2.5</f>
-        <v>327.5</v>
-      </c>
-      <c r="I40">
-        <f>I37*3.3</f>
-        <v>13.2</v>
-      </c>
-      <c r="L40">
-        <f>L39*3.6</f>
-        <v>2401.2000000000003</v>
-      </c>
-      <c r="N40" t="e">
-        <f>N39*5.5</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O40">
-        <f>O37*11.5</f>
-        <v>264.5</v>
-      </c>
-      <c r="P40">
-        <f>P37*12</f>
-        <v>564</v>
-      </c>
-      <c r="Q40">
-        <f>Q37*11.5</f>
-        <v>184</v>
-      </c>
-      <c r="U40" t="e">
-        <f>SUM(C40:Q40)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q43" s="7" t="s">
+      <c r="O48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>49</v>
+      </c>
+      <c r="Q49">
+        <f>Q45+Q47</f>
+        <v>10286.729020000001</v>
       </c>
     </row>
   </sheetData>

--- a/Calc_SIM/Phaser_Power_Budget.xlsx
+++ b/Calc_SIM/Phaser_Power_Budget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Phaser\Calc_SIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F284E551-E107-40F9-9470-20F3D2B97EC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06733E7-97B1-45E6-B172-393C623BAA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15000" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Rail</t>
   </si>
@@ -223,6 +223,12 @@
   </si>
   <si>
     <t>losses</t>
+  </si>
+  <si>
+    <t>P1V8A</t>
+  </si>
+  <si>
+    <t>ADP151AUJZ-1.8-R7</t>
   </si>
 </sst>
 </file>
@@ -674,19 +680,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366D8080-B06B-45F2-A912-FF305F83A70D}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:Q49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -706,100 +712,103 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>12</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -815,19 +824,19 @@
       <c r="F11">
         <v>50</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>100</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -835,18 +844,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -854,129 +863,129 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f>2*4</f>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <f>2*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>2</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <f>2*3</f>
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <f>2*250</f>
         <v>500</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <f>2*148</f>
         <v>296</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -984,419 +993,435 @@
         <f>820+60+120</f>
         <v>1000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <f>165</f>
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K33" s="8">
+      <c r="L33" s="8">
         <v>2</v>
       </c>
-      <c r="M33" s="8">
+      <c r="N33" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="O34" s="8">
+      <c r="P34" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>61</v>
       </c>
-      <c r="I37">
+      <c r="J38">
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>62</v>
       </c>
-      <c r="M38">
+      <c r="N39">
         <f>4*0.5</f>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="H40">
+      <c r="I41">
         <v>1</v>
       </c>
-      <c r="I40">
+      <c r="J41">
         <v>10</v>
       </c>
-      <c r="J40">
+      <c r="K41">
         <v>1</v>
       </c>
-      <c r="K40">
+      <c r="L41">
         <v>1</v>
       </c>
-      <c r="L40">
+      <c r="M41">
         <v>1</v>
       </c>
-      <c r="M40">
+      <c r="N41">
         <v>1</v>
       </c>
-      <c r="N40">
+      <c r="O41">
         <v>1</v>
       </c>
-      <c r="O40">
+      <c r="P41">
         <v>6</v>
       </c>
-      <c r="P40">
+      <c r="Q41">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>56</v>
       </c>
-      <c r="O41">
+      <c r="P42">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B42">
-        <f>SUM(B4:B41)</f>
+      <c r="B43">
+        <f>SUM(B4:B42)</f>
         <v>1500</v>
       </c>
-      <c r="C42" s="3">
-        <f t="shared" ref="C42:F42" si="0">SUM(C4:C41)</f>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:E43" si="0">SUM(C4:C42)</f>
         <v>200</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <f t="shared" si="0"/>
         <v>320.05</v>
       </c>
-      <c r="F42" s="8">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="G42" s="4">
-        <f t="shared" ref="G42:P42" si="1">SUM(G4:G41)</f>
+      <c r="F43" s="8">
+        <f>SUM(F4:F42)</f>
+        <v>50</v>
+      </c>
+      <c r="G43" s="4">
+        <f>SUM(G4:G42)</f>
+        <v>140</v>
+      </c>
+      <c r="H43" s="4">
+        <f t="shared" ref="H43:Q43" si="1">SUM(H4:H42)</f>
         <v>131</v>
       </c>
-      <c r="H42">
+      <c r="I43">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I42" s="8">
+      <c r="J43" s="8">
         <f t="shared" si="1"/>
-        <v>113.25</v>
-      </c>
-      <c r="J42" s="5">
+        <v>113.5</v>
+      </c>
+      <c r="K43" s="5">
         <f t="shared" si="1"/>
         <v>666</v>
       </c>
-      <c r="K42">
+      <c r="L43">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L42" s="6">
+      <c r="M43" s="6">
         <f t="shared" si="1"/>
         <v>328</v>
       </c>
-      <c r="M42">
+      <c r="N43">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="N42">
+      <c r="O43">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="O42">
+      <c r="P43">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="P42">
+      <c r="Q43">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="3">
-        <f>C42+D42</f>
+      <c r="E44" s="3">
+        <f>C43+D43</f>
         <v>1200</v>
       </c>
-      <c r="I43" s="4">
-        <f>G42</f>
-        <v>131</v>
-      </c>
-      <c r="K43" s="5">
-        <f>J42</f>
+      <c r="J44" s="4">
+        <f>G43+H43</f>
+        <v>271</v>
+      </c>
+      <c r="L44" s="5">
+        <f>K43</f>
         <v>666</v>
       </c>
-      <c r="M43" s="6">
-        <f>L42</f>
+      <c r="N44" s="6">
+        <f>M43</f>
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B44">
-        <f>B42</f>
+      <c r="B45">
+        <f>B43</f>
         <v>1500</v>
       </c>
-      <c r="E44">
-        <f>E42+E43</f>
+      <c r="E45">
+        <f>E43+E44</f>
         <v>1520.05</v>
       </c>
-      <c r="H44">
-        <f>H42+H43</f>
+      <c r="I45">
+        <f>I43+I44</f>
         <v>5</v>
       </c>
-      <c r="K44">
-        <f>K42+K43</f>
+      <c r="L45">
+        <f>L43+L44</f>
         <v>669</v>
       </c>
-      <c r="M44">
-        <f>M42+M43</f>
+      <c r="N45">
+        <f>N43+N44</f>
         <v>341</v>
       </c>
-      <c r="N44">
-        <f>N42+N43</f>
+      <c r="O45">
+        <f>O43+O44</f>
         <v>24</v>
       </c>
-      <c r="O44">
-        <f>O42+O43</f>
+      <c r="P45">
+        <f>P43+P44</f>
         <v>47</v>
       </c>
-      <c r="P44">
-        <f>P42+P43</f>
+      <c r="Q45">
+        <f>Q43+Q44</f>
         <v>17</v>
       </c>
-      <c r="Q44" s="9" t="s">
+      <c r="R45" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B45">
-        <f>B44*1</f>
+      <c r="B46">
+        <f>B45*1</f>
         <v>1500</v>
       </c>
-      <c r="E45">
-        <f>E44*1.5</f>
+      <c r="E46">
+        <f>E45*1.5</f>
         <v>2280.0749999999998</v>
       </c>
-      <c r="H45">
-        <f>H42*3.3</f>
+      <c r="I46">
+        <f>I43*3.3</f>
         <v>16.5</v>
       </c>
-      <c r="K45">
-        <f>K44*3.6</f>
+      <c r="L46">
+        <f>L45*3.6</f>
         <v>2408.4</v>
       </c>
-      <c r="M45">
-        <f>M44*5.5</f>
+      <c r="N46">
+        <f>N45*5.5</f>
         <v>1875.5</v>
       </c>
-      <c r="N45">
-        <f>N42*11.5</f>
+      <c r="O46">
+        <f>O43*11.5</f>
         <v>276</v>
       </c>
-      <c r="O45">
-        <f>O42*12</f>
+      <c r="P46">
+        <f>P43*12</f>
         <v>564</v>
       </c>
-      <c r="P45">
-        <f>P42*11.5</f>
+      <c r="Q46">
+        <f>Q43*11.5</f>
         <v>195.5</v>
       </c>
-      <c r="Q45" s="10">
-        <f>SUM(B45:P45)</f>
+      <c r="R46" s="10">
+        <f>SUM(B46:Q46)</f>
         <v>9115.9750000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B46">
+      <c r="B47">
         <f>0.92*0.89</f>
         <v>0.81880000000000008</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <f>0.92*0.9</f>
         <v>0.82800000000000007</v>
       </c>
-      <c r="H46">
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="K46">
+      <c r="L47">
         <f>0.92*0.96</f>
         <v>0.88319999999999999</v>
       </c>
-      <c r="M46">
+      <c r="N47">
         <v>0.92</v>
       </c>
-      <c r="N46">
+      <c r="O47">
         <v>0.84</v>
       </c>
-      <c r="O46">
+      <c r="P47">
         <v>1</v>
       </c>
-      <c r="P46">
+      <c r="Q47">
         <v>0.84</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="R47" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B47">
-        <f>(1-B46)*B45</f>
+      <c r="B48">
+        <f>(1-B47)*B46</f>
         <v>271.7999999999999</v>
       </c>
-      <c r="E47">
-        <f>(1-E46)*E45</f>
+      <c r="E48">
+        <f>(1-E47)*E46</f>
         <v>392.1728999999998</v>
       </c>
-      <c r="H47">
-        <f>(1-H46)*H45</f>
+      <c r="I48">
+        <f>(1-I47)*I46</f>
         <v>0</v>
       </c>
-      <c r="K47">
-        <f>(1-K46)*K45</f>
+      <c r="L48">
+        <f>(1-L47)*L46</f>
         <v>281.30112000000003</v>
       </c>
-      <c r="M47">
-        <f>(1-M46)*M45</f>
+      <c r="N48">
+        <f>(1-N47)*N46</f>
         <v>150.03999999999994</v>
       </c>
-      <c r="N47">
-        <f>(1-N46)*N45</f>
+      <c r="O48">
+        <f>(1-O47)*O46</f>
         <v>44.160000000000011</v>
       </c>
-      <c r="O47">
-        <f>(1-O46)*O45</f>
+      <c r="P48">
+        <f>(1-P47)*P46</f>
         <v>0</v>
       </c>
-      <c r="P47">
-        <f>(1-P46)*P45</f>
+      <c r="Q48">
+        <f>(1-Q47)*Q46</f>
         <v>31.280000000000005</v>
       </c>
-      <c r="Q47" s="12">
-        <f>SUM(B47:P47)</f>
+      <c r="R48" s="12">
+        <f>SUM(B48:Q48)</f>
         <v>1170.7540199999999</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+    <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F49" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="J49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="K49" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="M49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="N49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="O49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="P49" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="Q49">
-        <f>Q45+Q47</f>
+      <c r="R50">
+        <f>R46+R48</f>
         <v>10286.729020000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Calc_SIM/Phaser_Power_Budget.xlsx
+++ b/Calc_SIM/Phaser_Power_Budget.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DESIGNS\Sinara_ALTIUM\EEMs\Phaser\Calc_SIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06733E7-97B1-45E6-B172-393C623BAA9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C84A9-E744-42FE-9B38-C8648CDB0177}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EE22014-96C4-4AC9-93B4-FDD361AFCC40}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>Rail</t>
   </si>
@@ -208,9 +210,6 @@
   </si>
   <si>
     <t>MIC45116-1YMP</t>
-  </si>
-  <si>
-    <t>LT3045</t>
   </si>
   <si>
     <t>TPS72012DRVR</t>
@@ -363,12 +362,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,9 +383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +423,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -530,7 +529,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366D8080-B06B-45F2-A912-FF305F83A70D}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>12</v>
@@ -759,7 +758,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="O4">
+      <c r="M4">
         <v>2</v>
       </c>
       <c r="Q4">
@@ -825,7 +824,7 @@
         <v>50</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="J11">
         <v>50</v>
@@ -905,10 +904,6 @@
         <f>2*2</f>
         <v>4</v>
       </c>
-      <c r="Q20">
-        <f>2*2</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -917,9 +912,6 @@
       <c r="O21">
         <v>2</v>
       </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1030,17 +1022,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-    </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37">
         <v>0.25</v>
@@ -1048,7 +1032,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38">
         <v>0.25</v>
@@ -1056,7 +1040,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N39">
         <f>4*0.5</f>
@@ -1065,7 +1049,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0.05</v>
@@ -1141,7 +1125,7 @@
       </c>
       <c r="H43" s="4">
         <f t="shared" ref="H43:Q43" si="1">SUM(H4:H42)</f>
-        <v>131</v>
+        <v>381</v>
       </c>
       <c r="I43">
         <f t="shared" si="1"/>
@@ -1161,15 +1145,15 @@
       </c>
       <c r="M43" s="6">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N43">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
@@ -1177,7 +1161,7 @@
       </c>
       <c r="Q43">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1190,7 +1174,7 @@
       </c>
       <c r="J44" s="4">
         <f>G43+H43</f>
-        <v>271</v>
+        <v>521</v>
       </c>
       <c r="L44" s="5">
         <f>K43</f>
@@ -1198,7 +1182,7 @@
       </c>
       <c r="N44" s="6">
         <f>M43</f>
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
@@ -1217,17 +1201,21 @@
         <f>I43+I44</f>
         <v>5</v>
       </c>
+      <c r="J45">
+        <f>J43+J44</f>
+        <v>634.5</v>
+      </c>
       <c r="L45">
         <f>L43+L44</f>
         <v>669</v>
       </c>
       <c r="N45">
-        <f>N43+N44</f>
-        <v>341</v>
+        <f>N43+N44+(J46/5.5)+(L46/5.5)+(B46/5.5)+(E46/5.5)</f>
+        <v>1844.8772727272728</v>
       </c>
       <c r="O45">
         <f>O43+O44</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P45">
         <f>P43+P44</f>
@@ -1235,7 +1223,7 @@
       </c>
       <c r="Q45">
         <f>Q43+Q44</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R45" s="9" t="s">
         <v>45</v>
@@ -1257,29 +1245,33 @@
         <f>I43*3.3</f>
         <v>16.5</v>
       </c>
+      <c r="J46">
+        <f>J45*3.3</f>
+        <v>2093.85</v>
+      </c>
       <c r="L46">
         <f>L45*3.6</f>
         <v>2408.4</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="5">
         <f>N45*5.5</f>
-        <v>1875.5</v>
-      </c>
-      <c r="O46">
+        <v>10146.825000000001</v>
+      </c>
+      <c r="O46" s="5">
         <f>O43*11.5</f>
-        <v>276</v>
-      </c>
-      <c r="P46">
+        <v>253</v>
+      </c>
+      <c r="P46" s="5">
         <f>P43*12</f>
         <v>564</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="5">
         <f>Q43*11.5</f>
-        <v>195.5</v>
-      </c>
-      <c r="R46" s="10">
-        <f>SUM(B46:Q46)</f>
-        <v>9115.9750000000004</v>
+        <v>126.5</v>
+      </c>
+      <c r="R46" s="12">
+        <f>I46+N46+O46+P46+Q46</f>
+        <v>11106.825000000001</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
@@ -1297,6 +1289,10 @@
       <c r="I47">
         <v>1</v>
       </c>
+      <c r="J47">
+        <f>0.92*0.96</f>
+        <v>0.88319999999999999</v>
+      </c>
       <c r="L47">
         <f>0.92*0.96</f>
         <v>0.88319999999999999</v>
@@ -1313,8 +1309,8 @@
       <c r="Q47">
         <v>0.84</v>
       </c>
-      <c r="R47" s="11" t="s">
-        <v>63</v>
+      <c r="R47" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1333,17 +1329,21 @@
         <f>(1-I47)*I46</f>
         <v>0</v>
       </c>
+      <c r="J48">
+        <f>(1-J47)*J46</f>
+        <v>244.56168000000002</v>
+      </c>
       <c r="L48">
         <f>(1-L47)*L46</f>
         <v>281.30112000000003</v>
       </c>
       <c r="N48">
         <f>(1-N47)*N46</f>
-        <v>150.03999999999994</v>
+        <v>811.74599999999964</v>
       </c>
       <c r="O48">
         <f>(1-O47)*O46</f>
-        <v>44.160000000000011</v>
+        <v>40.480000000000011</v>
       </c>
       <c r="P48">
         <f>(1-P47)*P46</f>
@@ -1351,11 +1351,11 @@
       </c>
       <c r="Q48">
         <f>(1-Q47)*Q46</f>
-        <v>31.280000000000005</v>
-      </c>
-      <c r="R48" s="12">
+        <v>20.240000000000006</v>
+      </c>
+      <c r="R48" s="11">
         <f>SUM(B48:Q48)</f>
-        <v>1170.7540199999999</v>
+        <v>2062.3016999999995</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>12</v>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="R50">
         <f>R46+R48</f>
-        <v>10286.729020000001</v>
+        <v>13169.126700000001</v>
       </c>
     </row>
   </sheetData>
